--- a/biology/Botanique/Sarraceniaceae/Sarraceniaceae.xlsx
+++ b/biology/Botanique/Sarraceniaceae/Sarraceniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Sarraceniaceae (Les Sarracéniacées) sont une famille de plantes à fleurs dicotylédones qui comprend 17 espèces réparties en trois genres.
 Ce sont des plantes herbacées, carnivores, à mécanisme de capture passif, pérennes, rhizomateuses, à feuilles en rosette, des régions tempérées à tropicales originaires d'Amérique.
@@ -512,13 +524,15 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Sarracenia. L’histoire étymologique de ce nom est un bon exemple du cheminement chronologique qui conduit à l’attribution d’un nom botanique.
-Le premier dessin connu de la plante date de 1571 et a pour auteur le botaniste flamand  Matthias de l'Obel (1538-1616) qui la nomma Thutis Limpidi[1].
+Le premier dessin connu de la plante date de 1571 et a pour auteur le botaniste flamand  Matthias de l'Obel (1538-1616) qui la nomma Thutis Limpidi.
 			Premier dessin du Sarracenia par Matthias de l'Obel, 1571.
-Le médecin français Michel Sarrazin (1659–1734), qui fut naturaliste en Nouvelle-France (actuel Québec), redécouvrit la plante et en envoya un spécimen à Tournefort. En 1700, ce dernier nomma le genre, sous le nom  de Sarracena (suffixe ‑cena), le dédiant à Sarrazin, son découvreur (Sarrac. Sarracenus)[2].
-En 1753 Linné renomma la plante Sarracenia (suffixe ‑cenia)[3].
+Le médecin français Michel Sarrazin (1659–1734), qui fut naturaliste en Nouvelle-France (actuel Québec), redécouvrit la plante et en envoya un spécimen à Tournefort. En 1700, ce dernier nomma le genre, sous le nom  de Sarracena (suffixe ‑cena), le dédiant à Sarrazin, son découvreur (Sarrac. Sarracenus).
+En 1753 Linné renomma la plante Sarracenia (suffixe ‑cenia).
 </t>
         </is>
       </c>
@@ -547,7 +561,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Darlingtonia.
@@ -581,9 +597,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (12 nov. 2015)[4], NCBI  (12 nov. 2015)[5], DELTA Angio           (12 nov. 2015)[6] et ITIS      (12 nov. 2015)[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (12 nov. 2015), NCBI  (12 nov. 2015), DELTA Angio           (12 nov. 2015) et ITIS      (12 nov. 2015) :
 Darlingtonia
 Heliamphora
 Sarracenia</t>
@@ -614,9 +632,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (14 mai 2010)[8] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (14 mai 2010) :
 genre Darlingtonia
 Darlingtonia californica
 genre Heliamphora
